--- a/AR_Template_API.xlsx
+++ b/AR_Template_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhubb/Documents/ar_excel_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F273FC9B-67C1-3A46-A628-9FE9410F09F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E204970-92AC-864C-BDB9-AFBBC752C758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="500" windowWidth="16520" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10520" yWindow="500" windowWidth="17580" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/AR_Template_API.xlsx
+++ b/AR_Template_API.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhubb/Desktop/ar-api-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhubb/Documents/ar_excel_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ACAF26-CCFC-FB46-8D3D-3CE985BD5F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23A168-A311-9147-85A5-F35A914BF687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{B529C1D6-CF7F-934F-A90C-25942CD0223C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15600" windowHeight="16540" xr2:uid="{B529C1D6-CF7F-934F-A90C-25942CD0223C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Invoicenum</t>
   </si>
@@ -65,43 +65,49 @@
     <t>Days Past Due</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
     <t>AGING.1</t>
   </si>
   <si>
-    <t>PAID.1</t>
-  </si>
-  <si>
-    <t>Owed</t>
-  </si>
-  <si>
-    <t>OWED.1</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>DATE INVOICE SENT</t>
-  </si>
-  <si>
     <t>IN CIPS?</t>
   </si>
   <si>
     <t>Expected Payment Date</t>
   </si>
   <si>
-    <t>VALUE.1</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
     <t>NOTES</t>
+  </si>
+  <si>
+    <t>Inv Curr</t>
+  </si>
+  <si>
+    <t>PD Curr</t>
+  </si>
+  <si>
+    <t>Amt Invoiced</t>
+  </si>
+  <si>
+    <t>Amt Paid</t>
+  </si>
+  <si>
+    <t>Amt Open</t>
+  </si>
+  <si>
+    <t>OP Curr</t>
+  </si>
+  <si>
+    <t>Date Entered In Cips</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
   </si>
 </sst>
 </file>
@@ -155,7 +161,7 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -164,7 +170,7 @@
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -180,14 +186,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7733C00-AEE1-B041-8088-6E8CE81FBFEB}" name="Table1" displayName="Table1" ref="A1:V1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:V1048576" xr:uid="{E7733C00-AEE1-B041-8088-6E8CE81FBFEB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V1048576">
-    <sortCondition ref="B1:B1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7733C00-AEE1-B041-8088-6E8CE81FBFEB}" name="Table1" displayName="Table1" ref="A1:X1048576" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:X1048576" xr:uid="{E7733C00-AEE1-B041-8088-6E8CE81FBFEB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X1048576">
+    <sortCondition ref="D1:D1048576"/>
   </sortState>
-  <tableColumns count="22">
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{23EA059D-21BD-6D47-86AD-A8A743E39886}" name="Invoicenum"/>
-    <tableColumn id="2" xr3:uid="{063CFCC8-9038-D64A-AC3C-79A6EF6356C0}" name="PO #"/>
+    <tableColumn id="24" xr3:uid="{D26A2F5E-C65A-5E4E-A95C-24DD5E91A5C6}" name="PO #"/>
+    <tableColumn id="23" xr3:uid="{69B204D4-A1C5-9444-A5E7-843F52642175}" name="Customer Name"/>
+    <tableColumn id="2" xr3:uid="{063CFCC8-9038-D64A-AC3C-79A6EF6356C0}" name="Customer ID"/>
     <tableColumn id="3" xr3:uid="{764D34DC-6B6B-F340-8FE0-5E92421D3A25}" name="REASOL INVOICE NUMBER"/>
     <tableColumn id="4" xr3:uid="{B2E1D3D1-6542-0642-975F-75196A1D6274}" name="Invoice Date"/>
     <tableColumn id="5" xr3:uid="{AD56D57E-CF15-C942-AC90-1E47F337BC27}" name="Due Date"/>
@@ -196,14 +204,14 @@
     <tableColumn id="8" xr3:uid="{8161C761-AA0F-8B42-8AFE-E86662885D00}" name="AGING.1"/>
     <tableColumn id="9" xr3:uid="{5AD250FC-B172-1849-ADB6-B7DDF679ABDD}" name="Terms"/>
     <tableColumn id="10" xr3:uid="{5C87AB3F-1F22-AE40-BCB1-2E803D589D5A}" name="Days Past Due"/>
-    <tableColumn id="11" xr3:uid="{0CC92635-D7FD-1740-BAE4-DFC49B8DB19F}" name="Value" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{16EC38CA-40B8-854A-8640-6D404CEC07F6}" name="VALUE.1"/>
-    <tableColumn id="13" xr3:uid="{D3766C21-00BA-674B-8205-2FC39C81BFA7}" name="Paid" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{D0D5E25B-58FD-6043-9CB0-1C65CA8965A9}" name="PAID.1"/>
-    <tableColumn id="15" xr3:uid="{643C5265-F82F-5948-AC74-0FE7251551D5}" name="Owed" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{4A82F994-66F9-6B4F-893D-E230908B3E1B}" name="OWED.1"/>
+    <tableColumn id="11" xr3:uid="{0CC92635-D7FD-1740-BAE4-DFC49B8DB19F}" name="Amt Invoiced" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{16EC38CA-40B8-854A-8640-6D404CEC07F6}" name="Inv Curr"/>
+    <tableColumn id="13" xr3:uid="{D3766C21-00BA-674B-8205-2FC39C81BFA7}" name="Amt Paid" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{D0D5E25B-58FD-6043-9CB0-1C65CA8965A9}" name="PD Curr"/>
+    <tableColumn id="15" xr3:uid="{643C5265-F82F-5948-AC74-0FE7251551D5}" name="Amt Open" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{4A82F994-66F9-6B4F-893D-E230908B3E1B}" name="OP Curr"/>
     <tableColumn id="17" xr3:uid="{0008C9DF-378A-224C-92F2-3733E4A38F0E}" name="Status"/>
-    <tableColumn id="18" xr3:uid="{6812E4BF-722F-584C-84DD-683D98B2B75E}" name="DATE INVOICE SENT"/>
+    <tableColumn id="18" xr3:uid="{6812E4BF-722F-584C-84DD-683D98B2B75E}" name="Date Entered In Cips"/>
     <tableColumn id="19" xr3:uid="{EADB0A15-DAC9-3444-BC3D-CF907828B411}" name="IN CIPS?"/>
     <tableColumn id="20" xr3:uid="{0E83D1A8-8669-7245-87AE-557EF9560C3C}" name="Expected Payment Date"/>
     <tableColumn id="21" xr3:uid="{E7888DF4-46EF-0448-A295-C91430FC4BAE}" name="MR"/>
@@ -530,39 +538,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92BE0D3-8BD5-8F4B-A66D-51DA625F3990}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="8" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="7" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="19.5" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" customWidth="1"/>
-    <col min="22" max="22" width="9" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,64 +580,70 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/AR_Template_API.xlsx
+++ b/AR_Template_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhubb/Documents/ar_excel_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF23A168-A311-9147-85A5-F35A914BF687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159AA5F-762B-5D48-B48A-88659D8960A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15600" windowHeight="16540" xr2:uid="{B529C1D6-CF7F-934F-A90C-25942CD0223C}"/>
+    <workbookView xWindow="13580" yWindow="500" windowWidth="15600" windowHeight="16540" xr2:uid="{B529C1D6-CF7F-934F-A90C-25942CD0223C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92BE0D3-8BD5-8F4B-A66D-51DA625F3990}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/AR_Template_API.xlsx
+++ b/AR_Template_API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhubb/Documents/ar_excel_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159AA5F-762B-5D48-B48A-88659D8960A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254D83C7-94C1-CC4B-B39F-A15C1B3747AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13580" yWindow="500" windowWidth="15600" windowHeight="16540" xr2:uid="{B529C1D6-CF7F-934F-A90C-25942CD0223C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15600" windowHeight="16540" xr2:uid="{B529C1D6-CF7F-934F-A90C-25942CD0223C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Invoicenum</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>IN CIPS?</t>
-  </si>
-  <si>
     <t>Expected Payment Date</t>
   </si>
   <si>
@@ -108,6 +105,15 @@
   </si>
   <si>
     <t>Customer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN CIPS? </t>
+  </si>
+  <si>
+    <t>Settlment Date</t>
+  </si>
+  <si>
+    <t>Payment Number</t>
   </si>
 </sst>
 </file>
@@ -117,10 +123,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,12 +198,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7733C00-AEE1-B041-8088-6E8CE81FBFEB}" name="Table1" displayName="Table1" ref="A1:X1048576" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:X1048576" xr:uid="{E7733C00-AEE1-B041-8088-6E8CE81FBFEB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X1048576">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7733C00-AEE1-B041-8088-6E8CE81FBFEB}" name="Table1" displayName="Table1" ref="A1:Z1048576" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:Z1048576" xr:uid="{E7733C00-AEE1-B041-8088-6E8CE81FBFEB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z1048576">
     <sortCondition ref="D1:D1048576"/>
   </sortState>
-  <tableColumns count="24">
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{23EA059D-21BD-6D47-86AD-A8A743E39886}" name="Invoicenum"/>
     <tableColumn id="24" xr3:uid="{D26A2F5E-C65A-5E4E-A95C-24DD5E91A5C6}" name="PO #"/>
     <tableColumn id="23" xr3:uid="{69B204D4-A1C5-9444-A5E7-843F52642175}" name="Customer Name"/>
@@ -212,8 +224,10 @@
     <tableColumn id="16" xr3:uid="{4A82F994-66F9-6B4F-893D-E230908B3E1B}" name="OP Curr"/>
     <tableColumn id="17" xr3:uid="{0008C9DF-378A-224C-92F2-3733E4A38F0E}" name="Status"/>
     <tableColumn id="18" xr3:uid="{6812E4BF-722F-584C-84DD-683D98B2B75E}" name="Date Entered In Cips"/>
-    <tableColumn id="19" xr3:uid="{EADB0A15-DAC9-3444-BC3D-CF907828B411}" name="IN CIPS?"/>
-    <tableColumn id="20" xr3:uid="{0E83D1A8-8669-7245-87AE-557EF9560C3C}" name="Expected Payment Date"/>
+    <tableColumn id="19" xr3:uid="{EADB0A15-DAC9-3444-BC3D-CF907828B411}" name="Expected Payment Date"/>
+    <tableColumn id="25" xr3:uid="{851DD372-56D4-4745-A543-DF6B95EA4450}" name="Settlment Date"/>
+    <tableColumn id="26" xr3:uid="{85549DC1-2F1B-314B-92E9-DB18BC3F5EAE}" name="Payment Number"/>
+    <tableColumn id="20" xr3:uid="{0E83D1A8-8669-7245-87AE-557EF9560C3C}" name="IN CIPS? "/>
     <tableColumn id="21" xr3:uid="{E7888DF4-46EF-0448-A295-C91430FC4BAE}" name="MR"/>
     <tableColumn id="22" xr3:uid="{470BF6EE-7E1D-9D4B-9B8D-D9F8DFA1BE39}" name="NOTES"/>
   </tableColumns>
@@ -538,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92BE0D3-8BD5-8F4B-A66D-51DA625F3990}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,13 +580,14 @@
     <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="25.83203125" customWidth="1"/>
+    <col min="24" max="24" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -610,43 +625,50 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
